--- a/Images/Pillow/SGBM.xlsx
+++ b/Images/Pillow/SGBM.xlsx
@@ -62,7 +62,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>55.0625</v>
+        <v>54.6875</v>
       </c>
       <c r="B1" s="0">
         <v>12</v>
@@ -70,7 +70,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>43</v>
+        <v>42.3125</v>
       </c>
       <c r="B2" s="0">
         <v>15</v>
@@ -78,7 +78,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>35.125</v>
+        <v>34.9375</v>
       </c>
       <c r="B3" s="0">
         <v>18</v>
@@ -86,7 +86,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>29.4375</v>
+        <v>29.0625</v>
       </c>
       <c r="B4" s="0">
         <v>21</v>
@@ -94,7 +94,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>25.75</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0">
         <v>24</v>
@@ -102,7 +102,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>22.0625</v>
+        <v>21.4375</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -110,7 +110,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>19</v>
+        <v>19.0625</v>
       </c>
       <c r="B7" s="0">
         <v>30</v>
@@ -118,7 +118,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>17.1875</v>
+        <v>17.125</v>
       </c>
       <c r="B8" s="0">
         <v>33</v>
@@ -126,7 +126,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>15.0625</v>
+        <v>15.375</v>
       </c>
       <c r="B9" s="0">
         <v>36</v>
@@ -134,7 +134,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>14</v>
+        <v>13.8125</v>
       </c>
       <c r="B10" s="0">
         <v>39</v>
@@ -142,7 +142,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>12.125</v>
+        <v>12.4375</v>
       </c>
       <c r="B11" s="0">
         <v>42</v>
@@ -150,7 +150,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>11.125</v>
+        <v>11.1875</v>
       </c>
       <c r="B12" s="0">
         <v>45</v>
@@ -158,7 +158,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>10.0625</v>
+        <v>10.125</v>
       </c>
       <c r="B13" s="0">
         <v>48</v>
@@ -166,7 +166,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>8.1875</v>
+        <v>8.375</v>
       </c>
       <c r="B14" s="0">
         <v>54</v>
@@ -182,7 +182,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>6</v>
+        <v>5.125</v>
       </c>
       <c r="B16" s="0">
         <v>66</v>
@@ -190,7 +190,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>5</v>
+        <v>4.5625</v>
       </c>
       <c r="B17" s="0">
         <v>72</v>
